--- a/visualization/tests/violin_demo_data.xlsx
+++ b/visualization/tests/violin_demo_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Codes\virtualenv_eslearn\Lib\site-packages\eslearn\visualization\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D75A17-09BC-4F24-95B8-2E7B2E25A8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C079DC-90D3-425C-9C50-2C506C0B265B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,11 +431,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
